--- a/Progress-User-stories.xlsx
+++ b/Progress-User-stories.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23256" windowHeight="12432"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Φύλλο1" sheetId="1" r:id="rId1"/>
     <sheet name="Φύλλο2" sheetId="2" r:id="rId2"/>
     <sheet name="Φύλλο3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="101">
   <si>
     <t>Spring Backlog</t>
   </si>
@@ -36,9 +36,6 @@
     <t>Βαθμος Δυσκολιας</t>
   </si>
   <si>
-    <t>Να μπορει να συνδεεται με αλλα μεσα δικτυωσης π.χ. Facebook</t>
-  </si>
-  <si>
     <t>Να μπορει να επικοινωνησει με τον διαχειριστή</t>
   </si>
   <si>
@@ -57,15 +54,9 @@
     <t>Test-names</t>
   </si>
   <si>
-    <t xml:space="preserve">Διαλέξει το χρόνο προβολής της φωτογραφίας του </t>
-  </si>
-  <si>
     <t xml:space="preserve">Στείλει προσωπικό μνμ στις επαφές του το οποίο να διαγράφεται αφού διαβαστεί </t>
   </si>
   <si>
-    <t xml:space="preserve">Ειδοποιειται για εισερχόμενα μηνύματα αν είναι συνδεδεμένος στο ίντερνετ </t>
-  </si>
-  <si>
     <t xml:space="preserve">Χρησιμοποιεί και την front camera και την πίσω </t>
   </si>
   <si>
@@ -75,15 +66,9 @@
     <t>Να μπορεί ο χρήστης να :</t>
   </si>
   <si>
-    <t xml:space="preserve">Τραβήξει βίντεο μικρής διάρκειας </t>
-  </si>
-  <si>
     <t>Να μπορει να κανει login/logout</t>
   </si>
   <si>
-    <t>Προσθέσει φίλους από τις τηλεφωνικές επαφές του</t>
-  </si>
-  <si>
     <t>Προσθέσει φίλους με username</t>
   </si>
   <si>
@@ -93,9 +78,6 @@
     <t>Διαλέξει αν θα το στείλει σε έναν ή περισσότερους παραλήπτες</t>
   </si>
   <si>
-    <t>Διαλέξει αν θα το κρατήσει στο προσωπικό του προφίλ</t>
-  </si>
-  <si>
     <t>Κάνει αναζήτηση χρήστη</t>
   </si>
   <si>
@@ -106,13 +88,270 @@
   </si>
   <si>
     <t>→</t>
+  </si>
+  <si>
+    <t>script.js</t>
+  </si>
+  <si>
+    <t>Δημιουργία Βάσης</t>
+  </si>
+  <si>
+    <t>Σύνδεση στη βάση</t>
+  </si>
+  <si>
+    <t>ΟΝΟΜΑ ΑΡΧΕΙΟΥ</t>
+  </si>
+  <si>
+    <t>TESTING</t>
+  </si>
+  <si>
+    <t>ON/MO</t>
+  </si>
+  <si>
+    <t>ΓΙΩΡΓΟΣ ΟΡΦΑΝΙΔΗΣ</t>
+  </si>
+  <si>
+    <t>ΓΙΩΡΓΟΣ ΓΚΕΛΙΡΗΣ</t>
+  </si>
+  <si>
+    <t>ΣΜΑΡΩ ΠΟΥΡΓΑΝΗ</t>
+  </si>
+  <si>
+    <t>ΟΝ/ΜΟ</t>
+  </si>
+  <si>
+    <t>ΚΩΣΤΑΣ ΠΡΟΔΡΟΜΟΥ</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                                                                                                                                     </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">       ΦΥΛΛΟ ΑΤΟΜΙΚΗΣ ΕΡΓΑΣΙΑΣ DESKTOP</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                                                                                                                                     </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">       ΦΥΛΛΟ ΑΤΟΜΙΚΗΣ ΕΡΓΑΣΙΑΣ ANDROID</t>
+    </r>
+  </si>
+  <si>
+    <t>ONOMA ΑΡΧΕΙΟΥ</t>
+  </si>
+  <si>
+    <t>ΡΑΝΙΑ ΓΕΩΡΓΙΑΔΟΥ</t>
+  </si>
+  <si>
+    <t>ΔΗΜΗΤΡΗΣ ΚΑΡΑΝΤΕΛΟΣ</t>
+  </si>
+  <si>
+    <t>chat.css</t>
+  </si>
+  <si>
+    <t>chatuser.java</t>
+  </si>
+  <si>
+    <t>db.java</t>
+  </si>
+  <si>
+    <t>usertest.java</t>
+  </si>
+  <si>
+    <t>custom.css</t>
+  </si>
+  <si>
+    <t>user.java</t>
+  </si>
+  <si>
+    <t>web.xml</t>
+  </si>
+  <si>
+    <t>chatusertest.java</t>
+  </si>
+  <si>
+    <t>chatmessagetest.java</t>
+  </si>
+  <si>
+    <t>registercontroller.java</t>
+  </si>
+  <si>
+    <t>logincontroller.java</t>
+  </si>
+  <si>
+    <t>logoutcontroller.java</t>
+  </si>
+  <si>
+    <t>chatconfig.java</t>
+  </si>
+  <si>
+    <t>home.jsp</t>
+  </si>
+  <si>
+    <t>chatendpoint.java</t>
+  </si>
+  <si>
+    <t>index.jsp</t>
+  </si>
+  <si>
+    <t>friends.jsp</t>
+  </si>
+  <si>
+    <t>register.jsp</t>
+  </si>
+  <si>
+    <t>chathelper.java</t>
+  </si>
+  <si>
+    <t>chatmessage.java</t>
+  </si>
+  <si>
+    <t>jquery.js</t>
+  </si>
+  <si>
+    <t>swf.js</t>
+  </si>
+  <si>
+    <t>scriptcam.js</t>
+  </si>
+  <si>
+    <t>chatservlet.java</t>
+  </si>
+  <si>
+    <t>friendtest.java</t>
+  </si>
+  <si>
+    <t>friend.java</t>
+  </si>
+  <si>
+    <t>friendscontrollers.java</t>
+  </si>
+  <si>
+    <t>addfriendcontroller.java</t>
+  </si>
+  <si>
+    <t>menu.html</t>
+  </si>
+  <si>
+    <t>ajax_chat.js</t>
+  </si>
+  <si>
+    <t>prototype.js</t>
+  </si>
+  <si>
+    <t>homerouter.java</t>
+  </si>
+  <si>
+    <t>heads.html</t>
+  </si>
+  <si>
+    <t>addfriendcontrollertest.java</t>
+  </si>
+  <si>
+    <t>chatconfigtest.java</t>
+  </si>
+  <si>
+    <t>chathelpertest.java</t>
+  </si>
+  <si>
+    <t>chatservlettest.java</t>
+  </si>
+  <si>
+    <t>friendscontrollertest.java</t>
+  </si>
+  <si>
+    <t>logincontrollertest.java</t>
+  </si>
+  <si>
+    <t>dbtest.java</t>
+  </si>
+  <si>
+    <t>indexrouter.java</t>
+  </si>
+  <si>
+    <t>ΡΑΝΙΑ ΓΕΩΡΓΙΑΔΗ</t>
+  </si>
+  <si>
+    <t>login.java</t>
+  </si>
+  <si>
+    <t>const.java</t>
+  </si>
+  <si>
+    <t>userlist.java</t>
+  </si>
+  <si>
+    <t>register.java</t>
+  </si>
+  <si>
+    <t>toucheffect.java</t>
+  </si>
+  <si>
+    <t>customactivity.java</t>
+  </si>
+  <si>
+    <t>conversation.java</t>
+  </si>
+  <si>
+    <t>chat.java</t>
+  </si>
+  <si>
+    <t>utils.java</t>
+  </si>
+  <si>
+    <t>chatapp.java</t>
+  </si>
+  <si>
+    <t>chattest.java</t>
+  </si>
+  <si>
+    <t>userlisttest.java</t>
+  </si>
+  <si>
+    <t>registertest.java</t>
+  </si>
+  <si>
+    <t>logintest.java</t>
+  </si>
+  <si>
+    <t>conversationtest.java</t>
+  </si>
+  <si>
+    <t>Δημιουργία groups</t>
+  </si>
+  <si>
+    <t>Κάνει chat με τους φίλους του</t>
+  </si>
+  <si>
+    <t>Να μπορεί να γράφει ένα μνμ πάνω στη φωτογραφία</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ειδοποιείται για εισερχόμενα μηνύματα αν είναι συνδεδεμένος στο ίντερνετ </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -135,6 +374,30 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="161"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="161"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -206,10 +469,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -238,8 +505,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -261,13 +537,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>371475</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1000125</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>1019175</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -392,13 +668,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>363071</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>177613</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>829796</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>587188</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -436,9 +712,12 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="en-US" sz="1100" b="1"/>
-            <a:t>86</a:t>
+            <a:t>8</a:t>
           </a:r>
-          <a:endParaRPr lang="el-GR" sz="1100" b="1"/>
+          <a:r>
+            <a:rPr lang="el-GR" sz="1100" b="1"/>
+            <a:t>2</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -448,13 +727,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>597193</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>164007</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1104741</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>598075</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -491,10 +770,9 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="en-US" sz="1100" b="1"/>
-            <a:t>23</a:t>
+            <a:rPr lang="el-GR" sz="1100" b="1"/>
+            <a:t>62</a:t>
           </a:r>
-          <a:endParaRPr lang="el-GR" sz="1100" b="1"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -504,13 +782,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>105894</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>150719</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>627529</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>591670</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -547,10 +825,9 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="en-US" sz="1100" b="1"/>
-            <a:t>10</a:t>
+            <a:rPr lang="el-GR" sz="1100" b="1"/>
+            <a:t>39</a:t>
           </a:r>
-          <a:endParaRPr lang="el-GR" sz="1100" b="1"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -683,7 +960,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -718,7 +994,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -894,34 +1169,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="68.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="68.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.77734375" customWidth="1"/>
-    <col min="7" max="7" width="63.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="23.77734375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" customWidth="1"/>
+    <col min="7" max="7" width="63.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.7109375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="17" customWidth="1"/>
-    <col min="13" max="13" width="9.5546875" customWidth="1"/>
-    <col min="14" max="14" width="14.44140625" customWidth="1"/>
+    <col min="13" max="13" width="9.5703125" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" customWidth="1"/>
     <col min="15" max="15" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="15.75" thickBot="1">
       <c r="A1" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>5</v>
@@ -939,221 +1214,235 @@
         <v>3</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" ht="18.75">
       <c r="A2" s="4" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B2">
         <v>3</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="18.75">
       <c r="A3" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="B3" s="4">
+        <v>7</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="4"/>
+    </row>
+    <row r="4" spans="1:9" ht="18.75">
+      <c r="A4" s="4" t="s">
         <v>19</v>
-      </c>
-      <c r="B3" s="4">
-        <v>3</v>
-      </c>
-      <c r="C3" s="12"/>
-      <c r="D3" s="4"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
-        <v>24</v>
       </c>
       <c r="B4" s="4">
         <v>5</v>
       </c>
-      <c r="C4" s="12"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C4" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="4" t="s">
-        <v>25</v>
+        <v>97</v>
       </c>
       <c r="B5" s="4">
         <v>5</v>
       </c>
       <c r="C5" s="12"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="18.75">
       <c r="A6" s="4" t="s">
-        <v>13</v>
+        <v>99</v>
       </c>
       <c r="B6" s="4">
-        <v>3</v>
-      </c>
-      <c r="C6" s="12"/>
+        <v>5</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>23</v>
+      </c>
       <c r="D6" s="6"/>
     </row>
-    <row r="7" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" ht="18.75">
       <c r="A7" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B7" s="5">
         <v>5</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D7" s="4"/>
-    </row>
-    <row r="8" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="E7" s="4"/>
+    </row>
+    <row r="8" spans="1:9" ht="18.75">
       <c r="A8" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B8" s="5">
         <v>5</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="18.75">
       <c r="A9" s="5" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B9" s="5">
         <v>5</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="I9" s="9"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="18.75">
       <c r="A10" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B10" s="5">
         <v>5</v>
       </c>
-      <c r="C10" s="12"/>
-      <c r="I10" s="9"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C10" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="30.75">
       <c r="A11" s="5" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="B11" s="5">
-        <v>3</v>
-      </c>
-      <c r="C11" s="12"/>
-    </row>
-    <row r="12" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="4"/>
+    </row>
+    <row r="12" spans="1:9" ht="18.75">
       <c r="A12" s="5" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="B12" s="5">
         <v>5</v>
       </c>
-      <c r="C12" s="12"/>
+      <c r="C12" s="11" t="s">
+        <v>23</v>
+      </c>
       <c r="D12" s="4"/>
     </row>
-    <row r="13" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" ht="30">
       <c r="A13" s="5" t="s">
-        <v>27</v>
+        <v>100</v>
       </c>
       <c r="B13" s="5">
+        <v>7</v>
+      </c>
+      <c r="C13" s="12"/>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="5">
         <v>5</v>
       </c>
-      <c r="C13" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D13" s="4"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B14" s="5">
-        <v>7</v>
-      </c>
       <c r="C14" s="12"/>
-      <c r="I14" s="9"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:9" ht="18.75">
       <c r="A15" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B15" s="5">
-        <v>7</v>
-      </c>
-      <c r="C15" s="12"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="18.75">
       <c r="A16" s="5" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B16" s="5">
         <v>7</v>
       </c>
-      <c r="C16" s="12"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C16" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" s="4"/>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="5" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B17" s="5">
         <v>3</v>
       </c>
       <c r="C17" s="12"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" ht="18.75">
       <c r="A18" s="5" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B18" s="5">
+        <v>1</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="18.75">
+      <c r="A19" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" s="5">
+        <v>1</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="I19" s="9"/>
+    </row>
+    <row r="20" spans="1:9" ht="75.75" thickBot="1">
+      <c r="A20" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C18" s="12"/>
-      <c r="D18" s="4"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B19" s="5">
-        <v>3</v>
-      </c>
-      <c r="C19" s="12"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B20" s="5"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="I21" s="9"/>
-    </row>
-    <row r="22" spans="1:9" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="7" t="s">
+      <c r="B20" s="8"/>
+      <c r="C20" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B22" s="8"/>
-      <c r="C22" s="7" t="s">
+      <c r="D20" s="8"/>
+      <c r="E20" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D22" s="8"/>
-      <c r="E22" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F22" s="8"/>
-      <c r="I22" s="9"/>
-    </row>
-    <row r="23" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+      <c r="F20" s="8"/>
+      <c r="I20" s="9"/>
+    </row>
+    <row r="21" spans="1:9" ht="15.75" thickTop="1">
+      <c r="A21" s="5"/>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="A3">
     <cfRule type="dataBar" priority="2">
       <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
         <color rgb="FF638EC6"/>
       </dataBar>
     </cfRule>
@@ -1165,27 +1454,453 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:S24"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="10.85546875" customWidth="1"/>
+    <col min="9" max="9" width="18.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" ht="15" customHeight="1">
+      <c r="C1" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
+      <c r="O1" s="16"/>
+      <c r="P1" s="16"/>
+      <c r="Q1" s="16"/>
+      <c r="R1" s="16"/>
+      <c r="S1" s="16"/>
+    </row>
+    <row r="2" spans="1:19">
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="16"/>
+      <c r="N2" s="16"/>
+      <c r="O2" s="16"/>
+      <c r="P2" s="16"/>
+      <c r="Q2" s="16"/>
+      <c r="R2" s="16"/>
+      <c r="S2" s="16"/>
+    </row>
+    <row r="3" spans="1:19">
+      <c r="D3" s="13"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
+    </row>
+    <row r="4" spans="1:19">
+      <c r="A4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="13"/>
+      <c r="F4" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" s="13"/>
+      <c r="I4" t="s">
+        <v>33</v>
+      </c>
+      <c r="K4" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="L4" s="13"/>
+      <c r="N4" s="13"/>
+      <c r="O4" s="13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
+      <c r="C6" t="s">
+        <v>40</v>
+      </c>
+      <c r="K6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
+      <c r="C7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F7" t="s">
+        <v>47</v>
+      </c>
+      <c r="K7" t="s">
+        <v>58</v>
+      </c>
+      <c r="O7" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
+      <c r="A8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" t="s">
+        <v>42</v>
+      </c>
+      <c r="F8" t="s">
+        <v>79</v>
+      </c>
+      <c r="I8" t="s">
+        <v>81</v>
+      </c>
+      <c r="K8" t="s">
+        <v>59</v>
+      </c>
+      <c r="O8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
+      <c r="C9" t="s">
+        <v>43</v>
+      </c>
+      <c r="K9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
+      <c r="C10" t="s">
+        <v>44</v>
+      </c>
+      <c r="K10" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
+      <c r="C11" t="s">
+        <v>45</v>
+      </c>
+      <c r="K11" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
+      <c r="C12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
+      <c r="A13" t="s">
+        <v>31</v>
+      </c>
+      <c r="F13" s="18"/>
+      <c r="I13" t="s">
+        <v>39</v>
+      </c>
+      <c r="K13" t="s">
+        <v>63</v>
+      </c>
+      <c r="O13" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
+      <c r="C14" t="s">
+        <v>59</v>
+      </c>
+      <c r="F14" t="s">
+        <v>48</v>
+      </c>
+      <c r="K14" t="s">
+        <v>65</v>
+      </c>
+      <c r="O14" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
+      <c r="C15" t="s">
+        <v>49</v>
+      </c>
+      <c r="F15" t="s">
+        <v>49</v>
+      </c>
+      <c r="K15" t="s">
+        <v>66</v>
+      </c>
+      <c r="O15" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
+      <c r="C16" t="s">
+        <v>50</v>
+      </c>
+      <c r="F16" t="s">
+        <v>78</v>
+      </c>
+      <c r="K16" t="s">
+        <v>67</v>
+      </c>
+      <c r="O16" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="C17" t="s">
+        <v>51</v>
+      </c>
+      <c r="F17" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" t="s">
+        <v>32</v>
+      </c>
+      <c r="I18" t="s">
+        <v>34</v>
+      </c>
+      <c r="K18" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="C19" t="s">
+        <v>52</v>
+      </c>
+      <c r="F19" t="s">
+        <v>74</v>
+      </c>
+      <c r="K19" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="C20" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="K20" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="C21" t="s">
+        <v>54</v>
+      </c>
+      <c r="K21" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="C22" t="s">
+        <v>55</v>
+      </c>
+      <c r="K22" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="C23" t="s">
+        <v>56</v>
+      </c>
+      <c r="K23" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="C24" t="s">
+        <v>57</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C1:S2"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="C20" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B1:S16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="3" max="3" width="9.85546875" customWidth="1"/>
+    <col min="12" max="12" width="13.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:19">
+      <c r="C1" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
+      <c r="O1" s="16"/>
+      <c r="P1" s="16"/>
+      <c r="Q1" s="16"/>
+      <c r="R1" s="16"/>
+      <c r="S1" s="16"/>
+    </row>
+    <row r="2" spans="2:19">
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="16"/>
+      <c r="N2" s="16"/>
+      <c r="O2" s="16"/>
+      <c r="P2" s="16"/>
+      <c r="Q2" s="16"/>
+      <c r="R2" s="16"/>
+      <c r="S2" s="16"/>
+    </row>
+    <row r="4" spans="2:19">
+      <c r="B4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="I4" s="14"/>
+      <c r="K4" t="s">
+        <v>29</v>
+      </c>
+      <c r="M4" t="s">
+        <v>37</v>
+      </c>
+      <c r="P4" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q4" s="14"/>
+    </row>
+    <row r="8" spans="2:19">
+      <c r="B8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" t="s">
+        <v>89</v>
+      </c>
+      <c r="H8" t="s">
+        <v>92</v>
+      </c>
+      <c r="K8" t="s">
+        <v>38</v>
+      </c>
+      <c r="M8" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="11" spans="2:19">
+      <c r="M11" t="s">
+        <v>82</v>
+      </c>
+      <c r="P11" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="12" spans="2:19">
+      <c r="B12" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12" t="s">
+        <v>84</v>
+      </c>
+      <c r="H12" t="s">
+        <v>93</v>
+      </c>
+      <c r="K12" t="s">
+        <v>39</v>
+      </c>
+      <c r="M12" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="13" spans="2:19">
+      <c r="M13" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="15" spans="2:19">
+      <c r="E15" t="s">
+        <v>85</v>
+      </c>
+      <c r="H15" t="s">
+        <v>94</v>
+      </c>
+      <c r="M15" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="16" spans="2:19">
+      <c r="B16" t="s">
+        <v>32</v>
+      </c>
+      <c r="E16" t="s">
+        <v>86</v>
+      </c>
+      <c r="K16" t="s">
+        <v>34</v>
+      </c>
+      <c r="M16" t="s">
+        <v>88</v>
+      </c>
+      <c r="P16" t="s">
+        <v>96</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C1:S2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Progress-User-stories.xlsx
+++ b/Progress-User-stories.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Φύλλο1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="104">
   <si>
     <t>Spring Backlog</t>
   </si>
@@ -345,6 +345,15 @@
   </si>
   <si>
     <t xml:space="preserve">Ειδοποιείται για εισερχόμενα μηνύματα αν είναι συνδεδεμένος στο ίντερνετ </t>
+  </si>
+  <si>
+    <t>SearchController.java</t>
+  </si>
+  <si>
+    <t>AddList.java</t>
+  </si>
+  <si>
+    <t>Users.java</t>
   </si>
 </sst>
 </file>
@@ -507,12 +516,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1172,7 +1181,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
@@ -1458,7 +1467,7 @@
   <dimension ref="A1:S24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1468,44 +1477,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="15" customHeight="1">
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16"/>
-      <c r="N1" s="16"/>
-      <c r="O1" s="16"/>
-      <c r="P1" s="16"/>
-      <c r="Q1" s="16"/>
-      <c r="R1" s="16"/>
-      <c r="S1" s="16"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
+      <c r="O1" s="18"/>
+      <c r="P1" s="18"/>
+      <c r="Q1" s="18"/>
+      <c r="R1" s="18"/>
+      <c r="S1" s="18"/>
     </row>
     <row r="2" spans="1:19">
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16"/>
-      <c r="M2" s="16"/>
-      <c r="N2" s="16"/>
-      <c r="O2" s="16"/>
-      <c r="P2" s="16"/>
-      <c r="Q2" s="16"/>
-      <c r="R2" s="16"/>
-      <c r="S2" s="16"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="18"/>
+      <c r="N2" s="18"/>
+      <c r="O2" s="18"/>
+      <c r="P2" s="18"/>
+      <c r="Q2" s="18"/>
+      <c r="R2" s="18"/>
+      <c r="S2" s="18"/>
     </row>
     <row r="3" spans="1:19">
       <c r="D3" s="13"/>
@@ -1606,12 +1615,15 @@
       <c r="C12" t="s">
         <v>46</v>
       </c>
+      <c r="K12" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="13" spans="1:19">
       <c r="A13" t="s">
         <v>31</v>
       </c>
-      <c r="F13" s="18"/>
+      <c r="F13" s="16"/>
       <c r="I13" t="s">
         <v>39</v>
       </c>
@@ -1695,7 +1707,7 @@
       </c>
     </row>
     <row r="20" spans="1:11">
-      <c r="C20" s="17" t="s">
+      <c r="C20" s="15" t="s">
         <v>53</v>
       </c>
       <c r="K20" t="s">
@@ -1747,8 +1759,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:S16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1758,44 +1770,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:19">
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16"/>
-      <c r="N1" s="16"/>
-      <c r="O1" s="16"/>
-      <c r="P1" s="16"/>
-      <c r="Q1" s="16"/>
-      <c r="R1" s="16"/>
-      <c r="S1" s="16"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
+      <c r="O1" s="18"/>
+      <c r="P1" s="18"/>
+      <c r="Q1" s="18"/>
+      <c r="R1" s="18"/>
+      <c r="S1" s="18"/>
     </row>
     <row r="2" spans="2:19">
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16"/>
-      <c r="M2" s="16"/>
-      <c r="N2" s="16"/>
-      <c r="O2" s="16"/>
-      <c r="P2" s="16"/>
-      <c r="Q2" s="16"/>
-      <c r="R2" s="16"/>
-      <c r="S2" s="16"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="18"/>
+      <c r="N2" s="18"/>
+      <c r="O2" s="18"/>
+      <c r="P2" s="18"/>
+      <c r="Q2" s="18"/>
+      <c r="R2" s="18"/>
+      <c r="S2" s="18"/>
     </row>
     <row r="4" spans="2:19">
       <c r="B4" t="s">
@@ -1821,6 +1833,11 @@
       </c>
       <c r="Q4" s="14"/>
     </row>
+    <row r="7" spans="2:19">
+      <c r="M7" t="s">
+        <v>102</v>
+      </c>
+    </row>
     <row r="8" spans="2:19">
       <c r="B8" t="s">
         <v>30</v>
@@ -1836,6 +1853,11 @@
       </c>
       <c r="M8" t="s">
         <v>90</v>
+      </c>
+    </row>
+    <row r="9" spans="2:19">
+      <c r="M9" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="11" spans="2:19">
